--- a/evaluations/MMLU-clinical_knowledge/aya/ans.xlsx
+++ b/evaluations/MMLU-clinical_knowledge/aya/ans.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="30">
   <si>
     <t xml:space="preserve">no.1</t>
   </si>
@@ -55,16 +55,61 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">[B,C]</t>
+  </si>
+  <si>
     <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[B,D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A,D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A,B,D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[C,D]</t>
   </si>
   <si>
     <t xml:space="preserve">not_agreed</t>
   </si>
   <si>
+    <t xml:space="preserve">[A,B,C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[B]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A,C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A,B]</t>
+  </si>
+  <si>
     <t xml:space="preserve">multiple_choice</t>
   </si>
   <si>
+    <t xml:space="preserve">[C]</t>
+  </si>
+  <si>
     <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[B,C,D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A,B,C,D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A,C,D]</t>
   </si>
 </sst>
 </file>
@@ -167,7 +212,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,6 +230,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,7 +363,7 @@
   <dimension ref="A1:H266"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="H176" activeCellId="0" sqref="H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -361,34 +410,40 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -407,11 +462,14 @@
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,7 +480,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -430,11 +488,14 @@
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -453,11 +514,14 @@
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -474,13 +538,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -488,22 +555,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,11 +592,14 @@
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,34 +618,40 @@
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,45 +659,51 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>11</v>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,19 +714,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,11 +748,14 @@
       <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>12</v>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,11 +774,14 @@
       <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,11 +800,14 @@
       <c r="E17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,22 +815,25 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>11</v>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,11 +852,14 @@
       <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,11 +878,14 @@
       <c r="E20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,34 +904,40 @@
       <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>12</v>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,11 +956,14 @@
       <c r="E23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,11 +982,14 @@
       <c r="E24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>12</v>
+      <c r="F24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,11 +1008,14 @@
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,11 +1034,14 @@
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,16 +1060,19 @@
       <c r="E27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>9</v>
@@ -959,11 +1086,14 @@
       <c r="E28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,10 +1101,10 @@
         <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
@@ -982,11 +1112,14 @@
       <c r="E29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>12</v>
+      <c r="F29" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,39 +1133,45 @@
         <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,11 +1190,14 @@
       <c r="E32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,65 +1208,74 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,34 +1294,40 @@
       <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,34 +1346,40 @@
       <c r="E38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1235,11 +1398,14 @@
       <c r="E40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>10</v>
@@ -1258,11 +1424,14 @@
       <c r="E41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,11 +1450,14 @@
       <c r="E42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,10 +1476,13 @@
       <c r="E43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1327,11 +1502,14 @@
       <c r="E44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,11 +1528,14 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,27 +1543,30 @@
         <v>8</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>8</v>
@@ -1394,36 +1578,42 @@
         <v>8</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,11 +1632,14 @@
       <c r="E49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,16 +1653,19 @@
         <v>10</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,11 +1684,14 @@
       <c r="E51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,57 +1710,66 @@
       <c r="E52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,39 +1783,45 @@
         <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="0" t="s">
-        <v>12</v>
+      <c r="F55" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="0" t="s">
-        <v>11</v>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,22 +1840,25 @@
       <c r="E57" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>9</v>
@@ -1649,57 +1866,66 @@
       <c r="E58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="0" t="s">
-        <v>12</v>
+      <c r="F58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,11 +1944,14 @@
       <c r="E61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,11 +1970,14 @@
       <c r="E62" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,21 +1991,24 @@
         <v>8</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>9</v>
@@ -1787,11 +2022,14 @@
       <c r="E64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,34 +2048,40 @@
       <c r="E65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="0" t="s">
-        <v>11</v>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,10 +2100,13 @@
       <c r="E67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1879,34 +2126,40 @@
       <c r="E68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,45 +2167,51 @@
         <v>10</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,11 +2230,14 @@
       <c r="E72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,13 +2254,16 @@
         <v>9</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>10</v>
@@ -2017,11 +2282,14 @@
       <c r="E74" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>9</v>
@@ -2040,11 +2308,14 @@
       <c r="E75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="0" t="s">
-        <v>12</v>
+      <c r="F75" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,22 +2323,25 @@
         <v>9</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2086,11 +2360,14 @@
       <c r="E77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,11 +2386,14 @@
       <c r="E78" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,11 +2412,14 @@
       <c r="E79" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,11 +2438,14 @@
       <c r="E80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2178,34 +2464,40 @@
       <c r="E81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,19 +2508,22 @@
         <v>9</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,11 +2542,14 @@
       <c r="E84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,7 +2557,7 @@
         <v>8</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>9</v>
@@ -2268,59 +2566,68 @@
         <v>8</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,11 +2646,14 @@
       <c r="E88" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F88" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,45 +2661,51 @@
         <v>10</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,19 +2716,22 @@
         <v>8</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="0" t="s">
-        <v>12</v>
+      <c r="F91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,11 +2750,14 @@
       <c r="E92" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>9</v>
@@ -2454,11 +2776,14 @@
       <c r="E93" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,34 +2802,40 @@
       <c r="E94" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E95" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,11 +2854,14 @@
       <c r="E96" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2546,34 +2880,40 @@
       <c r="E97" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F97" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,22 +2921,25 @@
         <v>8</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,11 +2958,14 @@
       <c r="E100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2627,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>8</v>
@@ -2638,11 +2984,14 @@
       <c r="E101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2661,11 +3010,14 @@
       <c r="E102" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,11 +3036,14 @@
       <c r="E103" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,11 +3062,14 @@
       <c r="E104" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,34 +3088,40 @@
       <c r="E105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F105" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,42 +3132,48 @@
         <v>9</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,34 +3192,40 @@
       <c r="E109" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="0" t="s">
+      <c r="F109" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,11 +3244,14 @@
       <c r="E111" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F111" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,13 +3268,16 @@
         <v>8</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="0" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,45 +3296,51 @@
       <c r="E113" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="F113" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>8</v>
@@ -2960,11 +3348,14 @@
       <c r="E115" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="0" t="s">
-        <v>11</v>
+      <c r="F115" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,11 +3374,14 @@
       <c r="E116" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F116" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,34 +3400,40 @@
       <c r="E117" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F117" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3044,7 +3444,7 @@
         <v>9</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>9</v>
@@ -3052,57 +3452,66 @@
       <c r="E119" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F119" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,11 +3530,14 @@
       <c r="E122" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F122" s="0" t="s">
+      <c r="F122" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,11 +3556,14 @@
       <c r="E123" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F123" s="0" t="s">
+      <c r="F123" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,16 +3582,19 @@
       <c r="E124" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F124" s="0" t="s">
+      <c r="F124" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>9</v>
@@ -3190,19 +3608,22 @@
       <c r="E125" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="0" t="s">
+      <c r="F125" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>10</v>
@@ -3213,11 +3634,14 @@
       <c r="E126" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="0" t="s">
+      <c r="F126" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,22 +3649,25 @@
         <v>9</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,11 +3686,14 @@
       <c r="E128" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F128" s="0" t="s">
+      <c r="F128" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,34 +3712,40 @@
       <c r="E129" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F129" s="0" t="s">
+      <c r="F129" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,11 +3764,14 @@
       <c r="E131" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F131" s="0" t="s">
+      <c r="F131" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,22 +3779,25 @@
         <v>10</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="0" t="s">
-        <v>11</v>
+      <c r="F132" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,24 +3808,27 @@
         <v>8</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>8</v>
@@ -3397,11 +3842,14 @@
       <c r="E134" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F134" s="0" t="s">
+      <c r="F134" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,22 +3868,25 @@
       <c r="E135" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F135" s="0" t="s">
+      <c r="F135" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>10</v>
@@ -3443,11 +3894,14 @@
       <c r="E136" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F136" s="0" t="s">
-        <v>12</v>
+      <c r="F136" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3458,7 +3912,7 @@
         <v>9</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>10</v>
@@ -3466,11 +3920,14 @@
       <c r="E137" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F137" s="0" t="s">
+      <c r="F137" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,11 +3946,14 @@
       <c r="E138" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F138" s="0" t="s">
+      <c r="F138" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3501,22 +3961,25 @@
         <v>9</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,11 +3998,14 @@
       <c r="E140" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F140" s="0" t="s">
+      <c r="F140" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,42 +4024,48 @@
       <c r="E141" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="0" t="s">
+      <c r="F141" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>8</v>
@@ -3604,11 +4076,14 @@
       <c r="E143" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F143" s="0" t="s">
-        <v>12</v>
+      <c r="F143" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,7 +4094,7 @@
         <v>8</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>8</v>
@@ -3627,34 +4102,40 @@
       <c r="E144" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F144" s="0" t="s">
+      <c r="F144" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,80 +4154,92 @@
       <c r="E146" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="0" t="s">
+      <c r="F146" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,11 +4258,14 @@
       <c r="E150" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F150" s="0" t="s">
-        <v>12</v>
+      <c r="F150" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,68 +4273,77 @@
         <v>8</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,34 +4362,40 @@
       <c r="E154" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F154" s="0" t="s">
+      <c r="F154" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,11 +4414,14 @@
       <c r="E156" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F156" s="0" t="s">
+      <c r="F156" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3915,22 +4429,25 @@
         <v>10</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,34 +4466,40 @@
       <c r="E158" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F158" s="0" t="s">
+      <c r="F158" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,11 +4518,14 @@
       <c r="E160" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F160" s="0" t="s">
+      <c r="F160" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4018,11 +4544,14 @@
       <c r="E161" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F161" s="0" t="s">
+      <c r="F161" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4041,11 +4570,14 @@
       <c r="E162" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F162" s="0" t="s">
+      <c r="F162" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4053,10 +4585,10 @@
         <v>9</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>9</v>
@@ -4064,11 +4596,14 @@
       <c r="E163" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F163" s="0" t="s">
-        <v>12</v>
+      <c r="F163" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,11 +4622,14 @@
       <c r="E164" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F164" s="0" t="s">
+      <c r="F164" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4102,30 +4640,33 @@
         <v>9</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="0" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>10</v>
@@ -4133,34 +4674,40 @@
       <c r="E166" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F166" s="0" t="s">
-        <v>11</v>
+      <c r="F166" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,34 +4726,40 @@
       <c r="E168" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F168" s="0" t="s">
+      <c r="F168" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,11 +4778,14 @@
       <c r="E170" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F170" s="0" t="s">
+      <c r="F170" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,11 +4804,14 @@
       <c r="E171" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F171" s="0" t="s">
+      <c r="F171" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4260,10 +4819,10 @@
         <v>9</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>9</v>
@@ -4271,11 +4830,14 @@
       <c r="E172" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F172" s="0" t="s">
+      <c r="F172" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4294,11 +4856,14 @@
       <c r="E173" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F173" s="0" t="s">
+      <c r="F173" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,19 +4874,22 @@
         <v>9</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F174" s="0" t="s">
+      <c r="F174" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4340,11 +4908,14 @@
       <c r="E175" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F175" s="0" t="s">
+      <c r="F175" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,11 +4934,14 @@
       <c r="E176" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F176" s="0" t="s">
-        <v>12</v>
+      <c r="F176" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4384,18 +4958,21 @@
         <v>9</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F177" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>10</v>
@@ -4409,11 +4986,14 @@
       <c r="E178" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F178" s="0" t="s">
+      <c r="F178" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,34 +5012,40 @@
       <c r="E179" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F179" s="0" t="s">
+      <c r="F179" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F180" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,11 +5064,14 @@
       <c r="E181" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F181" s="0" t="s">
+      <c r="F181" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,7 +5079,7 @@
         <v>9</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>9</v>
@@ -4501,11 +5090,14 @@
       <c r="E182" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F182" s="0" t="s">
+      <c r="F182" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4524,11 +5116,14 @@
       <c r="E183" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F183" s="0" t="s">
+      <c r="F183" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4547,11 +5142,14 @@
       <c r="E184" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F184" s="0" t="s">
+      <c r="F184" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,7 +5160,7 @@
         <v>9</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>9</v>
@@ -4570,11 +5168,14 @@
       <c r="E185" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F185" s="0" t="s">
+      <c r="F185" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4593,34 +5194,40 @@
       <c r="E186" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F186" s="0" t="s">
+      <c r="F186" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F187" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,45 +5246,51 @@
       <c r="E188" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F188" s="0" t="s">
+      <c r="F188" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F189" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>8</v>
@@ -4685,11 +5298,14 @@
       <c r="E190" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F190" s="0" t="s">
-        <v>11</v>
+      <c r="F190" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4708,16 +5324,19 @@
       <c r="E191" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F191" s="0" t="s">
+      <c r="F191" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>8</v>
@@ -4731,11 +5350,14 @@
       <c r="E192" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F192" s="0" t="s">
-        <v>12</v>
+      <c r="F192" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4754,11 +5376,14 @@
       <c r="E193" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F193" s="0" t="s">
+      <c r="F193" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,11 +5402,14 @@
       <c r="E194" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F194" s="0" t="s">
+      <c r="F194" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,34 +5428,40 @@
       <c r="E195" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F195" s="0" t="s">
+      <c r="F195" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F196" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4846,11 +5480,14 @@
       <c r="E197" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F197" s="0" t="s">
+      <c r="F197" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,16 +5506,19 @@
       <c r="E198" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F198" s="0" t="s">
+      <c r="F198" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>10</v>
@@ -4887,16 +5527,19 @@
         <v>10</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F199" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,45 +5547,51 @@
         <v>8</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F200" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F201" s="0" t="s">
-        <v>11</v>
+      <c r="F201" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4961,11 +5610,14 @@
       <c r="E202" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F202" s="0" t="s">
+      <c r="F202" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,11 +5636,14 @@
       <c r="E203" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F203" s="0" t="s">
+      <c r="F203" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,11 +5662,14 @@
       <c r="E204" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F204" s="0" t="s">
-        <v>12</v>
+      <c r="F204" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5030,34 +5688,40 @@
       <c r="E205" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F205" s="0" t="s">
+      <c r="F205" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F206" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G206" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5065,22 +5729,25 @@
         <v>9</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F207" s="0" t="s">
-        <v>11</v>
+      <c r="F207" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H207" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5097,36 +5764,42 @@
         <v>8</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F208" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F208" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F209" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G209" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5145,11 +5818,14 @@
       <c r="E210" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F210" s="0" t="s">
+      <c r="F210" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,11 +5844,14 @@
       <c r="E211" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F211" s="0" t="s">
+      <c r="F211" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,19 +5870,22 @@
       <c r="E212" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F212" s="0" t="s">
+      <c r="F212" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>10</v>
@@ -5214,11 +5896,14 @@
       <c r="E213" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F213" s="0" t="s">
-        <v>12</v>
+      <c r="F213" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H213" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,11 +5922,14 @@
       <c r="E214" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F214" s="0" t="s">
+      <c r="F214" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5260,11 +5948,14 @@
       <c r="E215" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F215" s="0" t="s">
+      <c r="F215" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,11 +5974,14 @@
       <c r="E216" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F216" s="0" t="s">
+      <c r="F216" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5295,7 +5989,7 @@
         <v>8</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>8</v>
@@ -5306,11 +6000,14 @@
       <c r="E217" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F217" s="0" t="s">
+      <c r="F217" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G217" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H217" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5321,7 +6018,7 @@
         <v>8</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>8</v>
@@ -5329,34 +6026,40 @@
       <c r="E218" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F218" s="0" t="s">
+      <c r="F218" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G218" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F219" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G219" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H219" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5375,11 +6078,14 @@
       <c r="E220" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F220" s="0" t="s">
+      <c r="F220" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G220" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5398,11 +6104,14 @@
       <c r="E221" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F221" s="0" t="s">
+      <c r="F221" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G221" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H221" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,16 +6125,19 @@
         <v>8</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F222" s="0" t="s">
+      <c r="F222" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,7 +6145,7 @@
         <v>10</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>10</v>
@@ -5444,16 +6156,19 @@
       <c r="E223" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F223" s="0" t="s">
+      <c r="F223" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>10</v>
@@ -5467,11 +6182,14 @@
       <c r="E224" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F224" s="0" t="s">
+      <c r="F224" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5490,11 +6208,14 @@
       <c r="E225" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F225" s="0" t="s">
+      <c r="F225" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G225" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5513,11 +6234,14 @@
       <c r="E226" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F226" s="0" t="s">
+      <c r="F226" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,16 +6255,19 @@
         <v>8</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F227" s="0" t="s">
+      <c r="F227" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G227" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5548,10 +6275,10 @@
         <v>8</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>9</v>
@@ -5559,34 +6286,40 @@
       <c r="E228" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F228" s="0" t="s">
-        <v>12</v>
+      <c r="F228" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F229" s="0" t="s">
-        <v>11</v>
+      <c r="F229" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G229" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H229" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5605,11 +6338,14 @@
       <c r="E230" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F230" s="0" t="s">
+      <c r="F230" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,11 +6364,14 @@
       <c r="E231" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F231" s="0" t="s">
+      <c r="F231" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G231" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,19 +6382,22 @@
         <v>9</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F232" s="0" t="s">
-        <v>12</v>
+      <c r="F232" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5674,57 +6416,66 @@
       <c r="E233" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F233" s="0" t="s">
+      <c r="F233" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H233" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F234" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F235" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G235" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5743,11 +6494,14 @@
       <c r="E236" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F236" s="0" t="s">
+      <c r="F236" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G236" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5766,16 +6520,19 @@
       <c r="E237" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F237" s="0" t="s">
+      <c r="F237" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H237" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>9</v>
@@ -5789,11 +6546,14 @@
       <c r="E238" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F238" s="0" t="s">
+      <c r="F238" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G238" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5804,7 +6564,7 @@
         <v>9</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>10</v>
@@ -5812,11 +6572,14 @@
       <c r="E239" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F239" s="0" t="s">
+      <c r="F239" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G239" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5835,11 +6598,14 @@
       <c r="E240" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F240" s="0" t="s">
+      <c r="F240" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5856,13 +6622,16 @@
         <v>9</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F241" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F241" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G241" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5881,11 +6650,14 @@
       <c r="E242" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F242" s="0" t="s">
+      <c r="F242" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G242" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,11 +6676,14 @@
       <c r="E243" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F243" s="0" t="s">
+      <c r="F243" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G243" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5927,34 +6702,40 @@
       <c r="E244" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F244" s="0" t="s">
+      <c r="F244" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F245" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G245" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5973,11 +6754,14 @@
       <c r="E246" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F246" s="0" t="s">
+      <c r="F246" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G246" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5996,11 +6780,14 @@
       <c r="E247" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F247" s="0" t="s">
+      <c r="F247" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6019,34 +6806,40 @@
       <c r="E248" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F248" s="0" t="s">
+      <c r="F248" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G248" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F249" s="0" t="s">
-        <v>11</v>
+      <c r="F249" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H249" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,11 +6858,14 @@
       <c r="E250" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F250" s="0" t="s">
+      <c r="F250" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G250" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6088,11 +6884,14 @@
       <c r="E251" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F251" s="0" t="s">
+      <c r="F251" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G251" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,11 +6910,14 @@
       <c r="E252" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F252" s="0" t="s">
+      <c r="F252" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6134,11 +6936,14 @@
       <c r="E253" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F253" s="0" t="s">
+      <c r="F253" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G253" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6157,11 +6962,14 @@
       <c r="E254" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F254" s="0" t="s">
+      <c r="F254" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6180,16 +6988,19 @@
       <c r="E255" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F255" s="0" t="s">
+      <c r="F255" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G255" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>10</v>
@@ -6203,11 +7014,14 @@
       <c r="E256" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F256" s="0" t="s">
-        <v>12</v>
+      <c r="F256" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6221,16 +7035,19 @@
         <v>9</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F257" s="0" t="s">
+      <c r="F257" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H257" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6249,11 +7066,14 @@
       <c r="E258" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F258" s="0" t="s">
+      <c r="F258" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G258" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6272,11 +7092,14 @@
       <c r="E259" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F259" s="0" t="s">
+      <c r="F259" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G259" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6284,22 +7107,25 @@
         <v>8</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F260" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6318,11 +7144,14 @@
       <c r="E261" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F261" s="0" t="s">
+      <c r="F261" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6341,11 +7170,14 @@
       <c r="E262" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F262" s="0" t="s">
+      <c r="F262" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G262" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6364,11 +7196,14 @@
       <c r="E263" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F263" s="0" t="s">
+      <c r="F263" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6387,11 +7222,14 @@
       <c r="E264" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F264" s="0" t="s">
-        <v>12</v>
+      <c r="F264" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6405,39 +7243,45 @@
         <v>10</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E265" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F265" s="0" t="s">
+      <c r="F265" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H265" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F266" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G266" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
